--- a/Docs/parts-list.xlsx
+++ b/Docs/parts-list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b18f37f46ca55066/Desktop/ISU/Fall 2025/RCET 3375/5th Final Project/Farm-Bureau-Project/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{5B76F33F-26D8-4A37-AAE9-7515B3AF9A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CB45B36-00F0-4C17-A21A-4F981A8F134B}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{5B76F33F-26D8-4A37-AAE9-7515B3AF9A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2D206EE-D0E6-4039-8B3E-6EF921C0AD2C}"/>
   <bookViews>
-    <workbookView xWindow="3528" yWindow="2988" windowWidth="17280" windowHeight="8964" xr2:uid="{19B14B11-E598-40B5-8CCD-7CD550F58B23}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{19B14B11-E598-40B5-8CCD-7CD550F58B23}"/>
   </bookViews>
   <sheets>
     <sheet name="parts-list" sheetId="1" r:id="rId1"/>
@@ -645,6 +645,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -967,7 +971,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1029,7 +1033,7 @@
       <c r="C4" s="3">
         <v>47.04</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1124,6 +1128,7 @@
     <hyperlink ref="D7" r:id="rId3" display="https://www.amazon.com/Aluminium-Heatsink-Northbridge-Chipset-Cooling/dp/B07KJG5HWF/ref=sr_1_19?crid=3VF9EBVPEXPWQ&amp;dib=eyJ2IjoiMSJ9.FUOd0b6ypLm6brIsDezBLmpkoVLrO7nZ2GJ-nZ1vl7rGjHj071QN20LucGBJIEps.MtSiK0YK0je9G5kS_IArV2PCdiybYUG6yu7o1uaS3xg&amp;dib_tag=se&amp;keywords=40x40+heatsink+chipset&amp;qid=1763756777&amp;sprefix=40x40+heatsink+chipse%2Caps%2C204&amp;sr=8-19&amp;xpid=_krdhbG0Kf1l9" xr:uid="{5C176F0C-C6A0-49BE-ACE0-90B9DF1CAE59}"/>
     <hyperlink ref="D8" r:id="rId4" display="https://www.amazon.com/Ferwooh-Current-ACS712ELC-05B-Measuring-Indicator/dp/B0D1K8SQQZ/ref=sr_1_2?crid=1E9O9FYXF61NO&amp;dib=eyJ2IjoiMSJ9.jFkIBxh4Pr-kuRiIRJUUr5aues_3wOxh7l1crQbeVW2hgdnHLUqkRkGCMfkuFhpGUSrZeZy9xSqEmpHs1MKYx_57qNr51aAvSWv_tWpCFW-ETVkahpcJ2SQQ6HTqkFHpCVdUGAJpcJu7NkeANdzh9k-aBtsoJG4fvSRC_DFSuWWV_g9Hn_CCeNSJb-iarQ2G1l_6fk12tcUdXgcffxAurRJr_XnsczdmdpIyvkoI1dk.7ofQPOoLUWEaCa1zOfvBzCcF-YHqVITxCjcmNeHJLLw&amp;dib_tag=se&amp;keywords=hall%2Beffect%2Bcurrent%2Bsensor%2B5a&amp;qid=1763756709&amp;sprefix=hall%2Beffect%2Bcurrent%2Bsensor%2B5a%2Caps%2C200&amp;sr=8-2&amp;th=1" xr:uid="{CA70A3FB-B5D6-420B-830C-856EEE409A62}"/>
     <hyperlink ref="D9" r:id="rId5" display="https://www.digikey.com/en/products/detail/molex/0039300160/930327?gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=20560900243&amp;gbraid=0AAAAADrbLliTamjxwqEtT6NDHHACqVexE&amp;gclid=CjwKCAiAuIDJBhBoEiwAxhgyFnwtfO--rohBQ8Edg7SW_zmBkEMu2xTJRq9qk7f1GfksLYJxD8B1LBoCBz4QAvD_BwE" xr:uid="{9DE09880-F4BA-4E95-8DE4-0D282D1D2E5E}"/>
+    <hyperlink ref="D4" r:id="rId6" display="https://www.amazon.com/Hilitand-Computer-Radiator-Transparent-Reservoir/dp/B087FYBBR4/ref=sr_1_1?crid=1JQW3MZ43RWVM&amp;dib=eyJ2IjoiMSJ9.OZOQE7Jeh9EalHiTpOX6ZvtsPoQbgb5xlx9B3mqmBfu86KqKCSINGnTtGGIg3MCUsL0QGEHBKDTOHxD0OY2CVSU8BPMA0OQ6wIhNyU4JrGRJ3iYBZHJamdtJRqBsy4YGqLke4DrjN8lCW0Jiq8ncaNE1xzzL2h9JK7sTK_ikRrmhtQPuUUQ8D-CgPjHDxTcC.b-S8f493BCwluMEL9e96jSqER2f_oI_VEM91w453Npk&amp;dib_tag=se&amp;keywords=pc+cooling+reservoir+rgb+1.25l&amp;qid=1763494116&amp;s=industrial&amp;sprefix=pc+cooling+reservoir+rgb+1.25l%2Cindustrial%2C185&amp;sr=1-1" xr:uid="{BB070026-F1DB-4F71-B623-B483EA574620}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
